--- a/заказы/статистика филиалы/2023/11,23/02,11,23 ЗПФ/дв 02,11,23 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/02,11,23 ЗПФ/дв 02,11,23 бррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\02,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\02,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0177D3F-965D-4EB7-9481-C85EF0581AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F49218-4E84-4C8E-99AF-7605E1EFE004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,10 +250,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2764,7 +2768,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3122,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="Y7" s="20">
-        <f t="shared" ref="Y7:Y41" si="6">N7/X7</f>
+        <f t="shared" ref="Y7:Y37" si="6">N7/X7</f>
         <v>0</v>
       </c>
       <c r="Z7" s="2">
@@ -3197,7 +3201,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3458,7 +3462,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3788,7 +3792,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -5134,7 +5138,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="7" t="s">
